--- a/designpattern/system design/GoF_Design_Pattern.xlsx
+++ b/designpattern/system design/GoF_Design_Pattern.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GoF" sheetId="2" r:id="rId1"/>
@@ -743,7 +743,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Draw</a:t>
+              <a:t>draw</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
               <a:solidFill>
@@ -759,13 +759,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>127187</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>136712</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -776,7 +776,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3724275" y="2242297"/>
+          <a:off x="3746687" y="2242297"/>
           <a:ext cx="1724025" cy="1195668"/>
           <a:chOff x="400050" y="904875"/>
           <a:chExt cx="1724025" cy="1219200"/>
@@ -1708,13 +1708,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>14288</xdr:colOff>
+      <xdr:colOff>36699</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>119063</xdr:colOff>
+      <xdr:colOff>119062</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
@@ -1728,8 +1728,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="5529263" y="457201"/>
-          <a:ext cx="885825" cy="2771775"/>
+          <a:off x="5548873" y="433108"/>
+          <a:ext cx="869016" cy="2749363"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3250,7 +3250,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3302,7 +3302,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3442,7 +3442,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>22409</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3494,7 +3494,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>74297</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3611,8 +3611,8 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3622,7 +3622,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4134971" y="8438030"/>
-          <a:ext cx="1165411" cy="336176"/>
+          <a:ext cx="1165411" cy="257735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3679,13 +3679,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3697,8 +3697,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4628029" y="8774206"/>
-          <a:ext cx="0" cy="4997823"/>
+          <a:off x="4628029" y="8695765"/>
+          <a:ext cx="0" cy="5580529"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3894,13 +3894,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>123267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3960,13 +3960,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4011,7 +4011,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="637419" cy="264560"/>
@@ -4067,13 +4067,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4119,13 +4119,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>78437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>78437</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4251,7 +4251,7 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>89646</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4297,13 +4297,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>123269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>134473</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4363,13 +4363,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4414,7 +4414,7 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>56032</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="476412" cy="264560"/>
@@ -4470,13 +4470,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4602,7 +4602,7 @@
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>11203</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4647,15 +4647,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>100849</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>11211</xdr:rowOff>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>145675</xdr:rowOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4664,8 +4664,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7720849" y="10936946"/>
-          <a:ext cx="224121" cy="1983435"/>
+          <a:off x="7709647" y="8157883"/>
+          <a:ext cx="235323" cy="5266764"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4714,13 +4714,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>112062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4780,13 +4780,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4831,7 +4831,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="480131" cy="264560"/>
@@ -4887,13 +4887,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4936,9 +4936,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>123267</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>22409</xdr:colOff>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="637419" cy="264560"/>
@@ -4949,7 +4949,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6790767" y="10701618"/>
+          <a:off x="6308909" y="11205883"/>
           <a:ext cx="637419" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4994,13 +4994,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>93883</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5060,13 +5060,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5111,7 +5111,7 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>56035</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="637419" cy="264560"/>
@@ -5167,13 +5167,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>156880</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>78447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>179292</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>89650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5233,13 +5233,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5282,9 +5282,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>11208</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="476412" cy="264560"/>
@@ -5295,7 +5295,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4964208" y="11261912"/>
+          <a:off x="4773706" y="11766176"/>
           <a:ext cx="476412" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5340,13 +5340,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>72836</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>89650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5394,13 +5394,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5410,8 +5410,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4740088" y="12360088"/>
-          <a:ext cx="3003177" cy="0"/>
+          <a:off x="4740088" y="12864353"/>
+          <a:ext cx="2958353" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5446,14 +5446,14 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>145675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>22410</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>145675</xdr:rowOff>
+      <xdr:colOff>16809</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5463,9 +5463,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6286499" y="12920381"/>
-          <a:ext cx="1546411" cy="0"/>
+        <a:xfrm>
+          <a:off x="6286499" y="13424646"/>
+          <a:ext cx="1540810" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5500,13 +5500,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5548,6 +5548,479 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>100854</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>56031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>56031</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="直線矢印コネクタ 112"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2958354" y="8964707"/>
+          <a:ext cx="4740087" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="618952" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="テキスト ボックス 113"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3361765" y="8718177"/>
+          <a:ext cx="618952" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>append</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="円/楕円 117"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3316941" y="1893794"/>
+          <a:ext cx="2543735" cy="1882588"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>67237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>56028</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="線吹き出し 1 (枠付き) 121"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="728382" y="1075766"/>
+          <a:ext cx="2375646" cy="717176"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 55114"/>
+            <a:gd name="adj2" fmla="val -795"/>
+            <a:gd name="adj3" fmla="val 132216"/>
+            <a:gd name="adj4" fmla="val -38333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>これが’書く’という命令クラス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>どう書くかというのは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>drawable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>に入っている具象クラスで決まる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="円/楕円 123"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6062383" y="1949823"/>
+          <a:ext cx="2599764" cy="1949824"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="線吹き出し 1 (枠付き) 127"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9312087" y="3193678"/>
+          <a:ext cx="3585884" cy="918881"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 55114"/>
+            <a:gd name="adj2" fmla="val -795"/>
+            <a:gd name="adj3" fmla="val 3688"/>
+            <a:gd name="adj4" fmla="val -20525"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>命令の集合を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>commands</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>に配列で持つ。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>そのことで、このクラスにおいてどんな命令がされたのかという内容を意識することなく、ただ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>command</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を実行することだけに関心を持てばいい。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5935,7 +6408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
     </sheetView>
@@ -6216,8 +6689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L83" sqref="L83"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW31" sqref="AW31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>

--- a/designpattern/system design/GoF_Design_Pattern.xlsx
+++ b/designpattern/system design/GoF_Design_Pattern.xlsx
@@ -489,14 +489,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>124384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -505,10 +505,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="771525" y="2242297"/>
-          <a:ext cx="1724025" cy="935691"/>
+          <a:off x="771525" y="2141443"/>
+          <a:ext cx="1724025" cy="1130674"/>
           <a:chOff x="400050" y="904875"/>
-          <a:chExt cx="1724025" cy="952500"/>
+          <a:chExt cx="1724025" cy="1150986"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -519,9 +519,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="400050" y="904875"/>
-            <a:ext cx="1724025" cy="952500"/>
+            <a:ext cx="1724025" cy="1150986"/>
             <a:chOff x="400050" y="904875"/>
-            <a:chExt cx="1724025" cy="952500"/>
+            <a:chExt cx="1724025" cy="1150986"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -532,7 +532,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="400050" y="904875"/>
-              <a:ext cx="1724025" cy="952500"/>
+              <a:ext cx="1724025" cy="1150986"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -707,8 +707,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="447675" y="1590675"/>
-            <a:ext cx="1066800" cy="219076"/>
+            <a:off x="447675" y="1590676"/>
+            <a:ext cx="1066800" cy="465185"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -745,6 +745,17 @@
               </a:rPr>
               <a:t>draw</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>setColor</a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -758,14 +769,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>127187</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>59957</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>136712</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>69482</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -776,7 +787,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3746687" y="2242297"/>
+          <a:off x="5584457" y="2242297"/>
           <a:ext cx="1724025" cy="1195668"/>
           <a:chOff x="400050" y="904875"/>
           <a:chExt cx="1724025" cy="1219200"/>
@@ -1086,16 +1097,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>12326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>50426</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1104,7 +1115,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6496050" y="2242297"/>
+          <a:off x="7829550" y="2197473"/>
           <a:ext cx="1724025" cy="1382806"/>
           <a:chOff x="400050" y="904875"/>
           <a:chExt cx="1724025" cy="1409700"/>
@@ -1436,13 +1447,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -1454,7 +1465,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6496050" y="440951"/>
+          <a:off x="7829550" y="440951"/>
           <a:ext cx="1724025" cy="932330"/>
           <a:chOff x="400050" y="904875"/>
           <a:chExt cx="1724025" cy="952500"/>
@@ -1707,13 +1718,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>36699</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>159969</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>119062</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
@@ -1728,8 +1739,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="5548873" y="433108"/>
-          <a:ext cx="869016" cy="2749363"/>
+          <a:off x="7134508" y="685243"/>
+          <a:ext cx="869016" cy="2245093"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1764,16 +1775,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>119063</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>119063</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>12326</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1785,8 +1796,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7358063" y="1373281"/>
-          <a:ext cx="0" cy="869016"/>
+          <a:off x="8691563" y="1373281"/>
+          <a:ext cx="0" cy="824192"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1819,16 +1830,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:rowOff>126907</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1840,8 +1851,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8220075" y="923925"/>
-          <a:ext cx="142875" cy="1947863"/>
+          <a:off x="9553575" y="907116"/>
+          <a:ext cx="142875" cy="1909203"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1876,32 +1887,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>140637</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47348</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="41" name="カギ線コネクタ 40"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="48" idx="1"/>
-          <a:endCxn id="2" idx="3"/>
+          <a:stCxn id="48" idx="3"/>
+          <a:endCxn id="2" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2495550" y="2762250"/>
-          <a:ext cx="1085850" cy="4763"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="2734796" y="2170860"/>
+          <a:ext cx="305083" cy="2507599"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69696"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
@@ -1931,13 +1944,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1993,16 +2006,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>89930</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>82085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>843</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47347</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2010,9 +2023,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3581400" y="2714625"/>
-          <a:ext cx="133350" cy="104775"/>
+        <a:xfrm rot="5400000">
+          <a:off x="4074462" y="3459818"/>
+          <a:ext cx="133350" cy="101413"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -2057,14 +2070,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>100291</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>110539</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2073,10 +2086,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="781050" y="3966320"/>
-          <a:ext cx="1724025" cy="1354954"/>
+          <a:off x="781050" y="5232598"/>
+          <a:ext cx="1724025" cy="1681432"/>
           <a:chOff x="400050" y="904874"/>
-          <a:chExt cx="1724025" cy="1381126"/>
+          <a:chExt cx="1724025" cy="1480269"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -2087,9 +2100,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="400050" y="904874"/>
-            <a:ext cx="1724025" cy="1257029"/>
+            <a:ext cx="1724025" cy="1462618"/>
             <a:chOff x="400050" y="904874"/>
-            <a:chExt cx="1724025" cy="1257029"/>
+            <a:chExt cx="1724025" cy="1462618"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -2100,7 +2113,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="400050" y="904874"/>
-              <a:ext cx="1724025" cy="1257029"/>
+              <a:ext cx="1724025" cy="1462618"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2146,7 +2159,7 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="400050" y="1247775"/>
+              <a:off x="400050" y="1208314"/>
               <a:ext cx="1714500" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="line">
@@ -2215,8 +2228,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="628650" y="962024"/>
-            <a:ext cx="1314450" cy="285751"/>
+            <a:off x="707092" y="962024"/>
+            <a:ext cx="1119468" cy="285751"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2268,8 +2281,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="447675" y="1847850"/>
-            <a:ext cx="1066800" cy="438150"/>
+            <a:off x="447675" y="1808389"/>
+            <a:ext cx="1066800" cy="576754"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2305,6 +2318,17 @@
                 </a:solidFill>
               </a:rPr>
               <a:t>draw</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>setColor</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -2407,14 +2431,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>109538</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>100291</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21863</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2426,8 +2450,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1633538" y="3177988"/>
-          <a:ext cx="9525" cy="788332"/>
+          <a:off x="1633538" y="3272117"/>
+          <a:ext cx="9525" cy="1960481"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2463,13 +2487,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>50426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>91047</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>102267</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2481,8 +2505,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2638425" y="3625103"/>
-          <a:ext cx="4719638" cy="1004326"/>
+          <a:off x="2638425" y="3580279"/>
+          <a:ext cx="6053138" cy="2405076"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2517,14 +2541,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>40340</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>51560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>141754</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2533,7 +2557,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2505075" y="4578722"/>
+          <a:off x="2505075" y="5934648"/>
           <a:ext cx="133350" cy="101414"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -2577,16 +2601,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>86839</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>8412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>150153</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>71725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2595,7 +2619,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3724275" y="5465663"/>
+          <a:off x="5057775" y="6731941"/>
           <a:ext cx="1724025" cy="1071843"/>
           <a:chOff x="400050" y="904875"/>
           <a:chExt cx="1724025" cy="1095375"/>
@@ -2865,14 +2889,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>119064</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>2364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>5879</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95539</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2884,8 +2908,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="1643064" y="5199530"/>
-          <a:ext cx="1938337" cy="857525"/>
+          <a:off x="1643064" y="6893982"/>
+          <a:ext cx="1938337" cy="429351"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2918,16 +2942,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>121578</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>43150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>58265</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>147925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2936,7 +2960,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3581400" y="6004666"/>
+          <a:off x="3581400" y="7270944"/>
           <a:ext cx="133350" cy="104775"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -2980,16 +3004,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>61072</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>50426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>158277</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>79849</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3001,8 +3025,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5585572" y="3625103"/>
-          <a:ext cx="1772491" cy="2416262"/>
+          <a:off x="6919072" y="3580279"/>
+          <a:ext cx="1772491" cy="3727364"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3035,16 +3059,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>118222</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>107570</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>29142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>61072</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>40896</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>130556</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3053,7 +3077,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5452222" y="5990658"/>
+          <a:off x="5452222" y="7256936"/>
           <a:ext cx="133350" cy="101414"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -3095,66 +3119,17 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect l="735" t="11421" r="79902" b="66584"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9177617" y="672353"/>
-          <a:ext cx="2655794" cy="1748117"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>11207</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3244,13 +3219,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>89648</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3296,13 +3271,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>100854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3362,13 +3337,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>134468</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>100849</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3436,13 +3411,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>22409</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3488,13 +3463,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>123267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>74297</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3554,13 +3529,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3605,13 +3580,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3679,13 +3654,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3731,13 +3706,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>145677</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3782,7 +3757,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1051955" cy="264560"/>
@@ -3838,7 +3813,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="429861" cy="264560"/>
@@ -3894,13 +3869,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>123267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3960,13 +3935,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4011,7 +3986,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="637419" cy="264560"/>
@@ -4067,13 +4042,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4119,13 +4094,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>78437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>78437</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4169,15 +4144,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>145677</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>33615</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>67232</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4187,8 +4162,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5670177" y="7563971"/>
-          <a:ext cx="1030938" cy="336176"/>
+          <a:off x="7227794" y="8908676"/>
+          <a:ext cx="1030938" cy="336177"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4243,15 +4218,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>89646</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>123263</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>89646</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>123263</xdr:colOff>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4263,8 +4238,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6185646" y="7900147"/>
-          <a:ext cx="0" cy="5972735"/>
+          <a:off x="7743263" y="9244853"/>
+          <a:ext cx="0" cy="10006853"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4295,15 +4270,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>123269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>134473</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4313,8 +4288,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096000" y="9200034"/>
-          <a:ext cx="212912" cy="515468"/>
+          <a:off x="7653617" y="11049004"/>
+          <a:ext cx="212912" cy="515469"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4363,13 +4338,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4379,8 +4354,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4717676" y="9211235"/>
-          <a:ext cx="1389530" cy="0"/>
+          <a:off x="4717676" y="11060205"/>
+          <a:ext cx="2913530" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4412,9 +4387,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>56032</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>22415</xdr:colOff>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="476412" cy="264560"/>
@@ -4425,7 +4400,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5199532" y="8964706"/>
+          <a:off x="4784915" y="10813677"/>
           <a:ext cx="476412" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4451,8 +4426,8 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
@@ -4470,13 +4445,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4486,8 +4461,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4717676" y="9704294"/>
-          <a:ext cx="1378324" cy="0"/>
+          <a:off x="4717676" y="11553265"/>
+          <a:ext cx="2879912" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4520,15 +4495,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>190498</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>33615</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>112056</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>145673</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4538,8 +4513,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7238998" y="7563971"/>
-          <a:ext cx="1255058" cy="336176"/>
+          <a:off x="8796615" y="8908676"/>
+          <a:ext cx="1255058" cy="336177"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4594,15 +4569,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>11203</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>44820</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>11203</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>44820</xdr:colOff>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4614,8 +4589,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7821703" y="7900147"/>
-          <a:ext cx="0" cy="5950324"/>
+          <a:off x="9379320" y="9244853"/>
+          <a:ext cx="0" cy="9984442"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4646,15 +4621,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4664,8 +4639,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7709647" y="8157883"/>
-          <a:ext cx="235323" cy="5266764"/>
+          <a:off x="9267264" y="9502589"/>
+          <a:ext cx="235323" cy="8796616"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4712,15 +4687,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>112062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4730,7 +4705,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6084794" y="10701621"/>
+          <a:off x="7642411" y="16080444"/>
           <a:ext cx="212912" cy="2577350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4780,13 +4755,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4796,8 +4771,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1355912" y="10712824"/>
-          <a:ext cx="4728882" cy="0"/>
+          <a:off x="1355912" y="16091647"/>
+          <a:ext cx="6241676" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4831,7 +4806,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="480131" cy="264560"/>
@@ -4885,15 +4860,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>56028</xdr:colOff>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4903,7 +4878,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308911" y="10948147"/>
+          <a:off x="7866528" y="16326971"/>
           <a:ext cx="1389530" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4936,9 +4911,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>22409</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>56026</xdr:colOff>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="637419" cy="264560"/>
@@ -4949,7 +4924,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308909" y="11205883"/>
+          <a:off x="7866526" y="16080441"/>
           <a:ext cx="637419" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4994,13 +4969,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>93883</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5060,13 +5035,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5076,8 +5051,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4740088" y="11284323"/>
-          <a:ext cx="2958353" cy="0"/>
+          <a:off x="4740088" y="16663146"/>
+          <a:ext cx="4527177" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5109,9 +5084,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>56035</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>89652</xdr:colOff>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="637419" cy="264560"/>
@@ -5122,7 +5097,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7104535" y="11037794"/>
+          <a:off x="8662152" y="16416618"/>
           <a:ext cx="637419" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5165,15 +5140,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>156880</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>190497</xdr:colOff>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>78447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>179292</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>22409</xdr:colOff>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>89650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5183,8 +5158,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5871880" y="11508447"/>
-          <a:ext cx="212912" cy="515468"/>
+          <a:off x="7429497" y="16887271"/>
+          <a:ext cx="212912" cy="515467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5233,13 +5208,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5249,8 +5224,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4728882" y="11508441"/>
-          <a:ext cx="1143000" cy="0"/>
+          <a:off x="4728882" y="16887265"/>
+          <a:ext cx="2678206" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5284,7 +5259,7 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="476412" cy="264560"/>
@@ -5339,14 +5314,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>89650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>72836</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>106453</xdr:colOff>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>89650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5358,8 +5333,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4717676" y="12023912"/>
-          <a:ext cx="1260660" cy="3"/>
+          <a:off x="4751294" y="17402738"/>
+          <a:ext cx="2784659" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5394,13 +5369,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5410,8 +5385,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4740088" y="12864353"/>
-          <a:ext cx="2958353" cy="0"/>
+          <a:off x="4740088" y="17738912"/>
+          <a:ext cx="4515971" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5444,15 +5419,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>33616</xdr:colOff>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>145675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>16809</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>50426</xdr:colOff>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5464,7 +5439,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6286499" y="13424646"/>
+          <a:off x="7844116" y="18299204"/>
           <a:ext cx="1540810" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5498,15 +5473,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>128867</xdr:colOff>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5518,7 +5493,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1378324" y="13278971"/>
+          <a:off x="2935941" y="18657794"/>
           <a:ext cx="4812926" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5554,13 +5529,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>56031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>56031</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5570,8 +5545,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2958354" y="8964707"/>
-          <a:ext cx="4740087" cy="0"/>
+          <a:off x="2958354" y="10309413"/>
+          <a:ext cx="6297705" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5605,7 +5580,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="618952" cy="264560"/>
@@ -5659,16 +5634,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>89653</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>145676</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5677,8 +5652,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3316941" y="1893794"/>
-          <a:ext cx="2543735" cy="1882588"/>
+          <a:off x="5233153" y="1949824"/>
+          <a:ext cx="2398053" cy="1804147"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5723,16 +5698,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>56031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>67237</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>112060</xdr:rowOff>
+      <xdr:rowOff>100854</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5741,15 +5716,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="728382" y="1075766"/>
-          <a:ext cx="2375646" cy="717176"/>
+          <a:off x="1792941" y="392207"/>
+          <a:ext cx="3709146" cy="717176"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
             <a:gd name="adj1" fmla="val 55114"/>
             <a:gd name="adj2" fmla="val -795"/>
-            <a:gd name="adj3" fmla="val 132216"/>
-            <a:gd name="adj4" fmla="val -38333"/>
+            <a:gd name="adj3" fmla="val 215029"/>
+            <a:gd name="adj4" fmla="val -22321"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -5834,16 +5809,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>156883</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
+      <xdr:rowOff>56028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5852,7 +5827,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6062383" y="1949823"/>
+          <a:off x="7395883" y="1904999"/>
           <a:ext cx="2599764" cy="1949824"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5898,13 +5873,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>168087</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>67</xdr:col>
+      <xdr:col>74</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
@@ -6014,6 +5989,1674 @@
             <a:t>を実行することだけに関心を持てばいい。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3914</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>13439</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="115" name="グループ化 114"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3242414" y="2242297"/>
+          <a:ext cx="1724025" cy="1195668"/>
+          <a:chOff x="400050" y="904875"/>
+          <a:chExt cx="1724025" cy="1219200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="129" name="グループ化 128"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="904875"/>
+            <a:ext cx="1724025" cy="1219200"/>
+            <a:chOff x="400050" y="904875"/>
+            <a:chExt cx="1724025" cy="1219200"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="136" name="正方形/長方形 135"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="904875"/>
+              <a:ext cx="1724025" cy="1219200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="137" name="直線コネクタ 136"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1247775"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="138" name="直線コネクタ 137"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1809750"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="133" name="テキスト ボックス 132"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="628650" y="962024"/>
+            <a:ext cx="1314450" cy="285751"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ColorCommand</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="134" name="テキスト ボックス 133"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1847850"/>
+            <a:ext cx="1066800" cy="219076"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>execute</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="135" name="テキスト ボックス 134"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1285874"/>
+            <a:ext cx="1066800" cy="495301"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>drawable</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>color</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>123545</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>82084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>34458</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47346</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="フローチャート : 判断 138"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6394077" y="3459817"/>
+          <a:ext cx="133350" cy="101413"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>174252</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47346</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="カギ線コネクタ 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="139" idx="3"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="3894604" y="1011051"/>
+          <a:ext cx="305082" cy="4827214"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69696"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>103927</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="151" name="カギ線コネクタ 150"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="136" idx="0"/>
+          <a:endCxn id="30" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="5963487" y="-485779"/>
+          <a:ext cx="869016" cy="4587136"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>78437</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="線吹き出し 1 (枠付き) 176"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1904999" y="4112560"/>
+          <a:ext cx="2364438" cy="470646"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 55114"/>
+            <a:gd name="adj2" fmla="val -795"/>
+            <a:gd name="adj3" fmla="val -91965"/>
+            <a:gd name="adj4" fmla="val -10673"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>これが’色を変える’という命令クラス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>145682</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="円/楕円 177"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2812682" y="1949824"/>
+          <a:ext cx="2398053" cy="1804147"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>56032</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>7063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="179" name="正方形/長方形 178"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2767853" y="12998826"/>
+          <a:ext cx="190500" cy="2304266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="180" name="直線矢印コネクタ 179"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1355912" y="13010029"/>
+          <a:ext cx="1423147" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>89649</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>112060</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="正方形/長方形 180"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5804649" y="13077266"/>
+          <a:ext cx="1165411" cy="257735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:ColorCommand</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>89649</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="182" name="直線矢印コネクタ 181"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="181" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2969559" y="13206134"/>
+          <a:ext cx="2835090" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1022972" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="テキスト ボックス 182"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1434353" y="12763501"/>
+          <a:ext cx="1022972" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ActionParform</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="429861" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="テキスト ボックス 183"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3361765" y="12954000"/>
+          <a:ext cx="429861" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>new</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>100854</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="186" name="直線矢印コネクタ 185"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2958354" y="14197854"/>
+          <a:ext cx="3294528" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="637419" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="テキスト ボックス 186"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3361765" y="13951325"/>
+          <a:ext cx="637419" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>execute</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>100889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>106456</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="188" name="直線矢印コネクタ 187"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="185" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2969559" y="15060742"/>
+          <a:ext cx="3423397" cy="11170"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>11203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>11203</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="189" name="直線矢印コネクタ 188"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1355912" y="15307232"/>
+          <a:ext cx="1423147" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>56034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>67238</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="190" name="正方形/長方形 189"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7653617" y="14343534"/>
+          <a:ext cx="212912" cy="515469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="191" name="直線矢印コネクタ 190"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6488206" y="14354735"/>
+          <a:ext cx="1143000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="662810" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="192" name="テキスト ボックス 191"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667502" y="14108207"/>
+          <a:ext cx="662810" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>setColor</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>62594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>140073</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>67238</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="193" name="直線矢印コネクタ 192"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="190" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6499412" y="14854359"/>
+          <a:ext cx="1260661" cy="4644"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>100854</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>156884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>156884</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="194" name="直線矢印コネクタ 193"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2958354" y="13603943"/>
+          <a:ext cx="6308911" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="618952" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="195" name="テキスト ボックス 194"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3361765" y="13357413"/>
+          <a:ext cx="618952" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>append</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>100855</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>100855</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="208" name="直線コネクタ 207"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="181" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6387355" y="13335001"/>
+          <a:ext cx="0" cy="5871881"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>56032</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="正方形/長方形 184"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6297706" y="14175444"/>
+          <a:ext cx="190500" cy="896468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -6687,10 +8330,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B42"/>
+  <dimension ref="A2:B50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW31" sqref="AW31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC30" sqref="AC30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
@@ -6705,8 +8348,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
         <v>12</v>
       </c>
     </row>

--- a/designpattern/system design/GoF_Design_Pattern.xlsx
+++ b/designpattern/system design/GoF_Design_Pattern.xlsx
@@ -5873,16 +5873,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>168087</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>88712</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>55096</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>46691</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5890,16 +5890,16 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9312087" y="3193678"/>
-          <a:ext cx="3585884" cy="918881"/>
+        <a:xfrm flipH="1">
+          <a:off x="4660712" y="4683127"/>
+          <a:ext cx="3585884" cy="951564"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
             <a:gd name="adj1" fmla="val 55114"/>
             <a:gd name="adj2" fmla="val -795"/>
-            <a:gd name="adj3" fmla="val 3688"/>
-            <a:gd name="adj4" fmla="val -20525"/>
+            <a:gd name="adj3" fmla="val -68049"/>
+            <a:gd name="adj4" fmla="val -9457"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -8332,8 +8332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC30" sqref="AC30"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AY33" sqref="AY33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
@@ -8355,8 +8355,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="49" max="16383" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/designpattern/system design/GoF_Design_Pattern.xlsx
+++ b/designpattern/system design/GoF_Design_Pattern.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="GoF" sheetId="2" r:id="rId1"/>
-    <sheet name="Command" sheetId="1" r:id="rId2"/>
+    <sheet name="Factory Method" sheetId="3" r:id="rId2"/>
+    <sheet name="Command" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Factory Method'!$A$1:$BA$35</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>■デザインパターンを学ぼう</t>
     <rPh sb="10" eb="11">
@@ -82,81 +86,6 @@
   </si>
   <si>
     <t>Command</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>命令をクラスにする？
-行いたい仕事を「メソッドを呼び出す」という動的な処理として表現するのではなく、命令を表すクラスのインスタンスという</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>１個の「もの」として表現する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>方法。Strutsはこの方法でリクエストを処理している。</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ドウテキ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>アラワ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>ショリ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -338,6 +267,174 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>命令をクラスにする？
+行いたい仕事を「メソッドを呼び出す」という動的な処理として表現するのではなく、命令を表すクラスのインスタンスという</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>１個の「もの」として表現する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方法。Strutsはこの方法でリクエストを処理している。おそらくどのMVCフレームワークも同じことをしている。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ドウテキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>インスタンスの作成をサブクラスに任せる？
+具体的な肉付けを全てサブクラスの側で行うことで、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>インスタンス生成の為の骨組み（フレームワーク）と、実際のインスタンス生成のクラスとを分けて考える</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ことができる。</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マカ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ホネグ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．GoFデザインパターンリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Factory Method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンプルな窓口？</t>
+    <rPh sb="5" eb="7">
+      <t>マドグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -484,6 +581,2009 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="177" name="グループ化 176"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="561975" y="3619500"/>
+          <a:ext cx="5534025" cy="2162175"/>
+          <a:chOff x="561975" y="1590675"/>
+          <a:chExt cx="5534025" cy="2162175"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="178" name="正方形/長方形 177"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="561975" y="1857375"/>
+            <a:ext cx="5534025" cy="1895475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="179" name="正方形/長方形 178"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="561975" y="1590675"/>
+            <a:ext cx="1266825" cy="266699"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>idcard</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="176" name="グループ化 175"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="561975" y="904875"/>
+          <a:ext cx="5534025" cy="2162175"/>
+          <a:chOff x="561975" y="1590675"/>
+          <a:chExt cx="5534025" cy="2162175"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="174" name="正方形/長方形 173"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="561975" y="1857375"/>
+            <a:ext cx="5534025" cy="1895475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="175" name="正方形/長方形 174"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="561975" y="1590675"/>
+            <a:ext cx="1266825" cy="266699"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>framework</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>124384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="771525" y="1495984"/>
+          <a:ext cx="1724025" cy="1370480"/>
+          <a:chOff x="400050" y="904875"/>
+          <a:chExt cx="1724025" cy="1367723"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="3" name="グループ化 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="904875"/>
+            <a:ext cx="1724025" cy="1367723"/>
+            <a:chOff x="400050" y="904875"/>
+            <a:chExt cx="1724025" cy="1367723"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="904875"/>
+              <a:ext cx="1724025" cy="1367723"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="7" name="直線コネクタ 6"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1400175"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="8" name="直線コネクタ 7"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1552575"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="628650" y="962024"/>
+            <a:ext cx="1314450" cy="447675"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>&lt;&lt; interface&gt;&gt;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Factory</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1590676"/>
+            <a:ext cx="1066800" cy="653965"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>create</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>createProduct</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>registerProduct</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="グループ化 24"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3952875" y="1704975"/>
+          <a:ext cx="1724025" cy="952500"/>
+          <a:chOff x="400050" y="895350"/>
+          <a:chExt cx="1724025" cy="952500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="26" name="グループ化 25"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="895350"/>
+            <a:ext cx="1724025" cy="952500"/>
+            <a:chOff x="400050" y="895350"/>
+            <a:chExt cx="1724025" cy="952500"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="895350"/>
+              <a:ext cx="1724025" cy="952500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="30" name="直線コネクタ 29"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1400175"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="31" name="直線コネクタ 30"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1552575"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="628650" y="962024"/>
+            <a:ext cx="1314450" cy="447675"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>&lt;&lt; interface&gt;&gt;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Product</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1590675"/>
+            <a:ext cx="1066800" cy="219076"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>use</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>29134</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="152" idx="0"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1633538" y="3552264"/>
+          <a:ext cx="0" cy="1277470"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="カギ線コネクタ 62"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="152" idx="3"/>
+          <a:endCxn id="161" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2495550" y="5514974"/>
+          <a:ext cx="1457325" cy="5043"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="カギ線コネクタ 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2495550" y="2867024"/>
+          <a:ext cx="1457325" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="705386" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="テキスト ボックス 145"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2695574" y="2562225"/>
+          <a:ext cx="705386" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Create</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>➤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>29134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28014</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="148" name="グループ化 147"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="771525" y="4143934"/>
+          <a:ext cx="1724025" cy="1370480"/>
+          <a:chOff x="400050" y="904875"/>
+          <a:chExt cx="1724025" cy="1367723"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="149" name="グループ化 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="904875"/>
+            <a:ext cx="1724025" cy="1367723"/>
+            <a:chOff x="400050" y="904875"/>
+            <a:chExt cx="1724025" cy="1367723"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="152" name="正方形/長方形 151"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="904875"/>
+              <a:ext cx="1724025" cy="1367723"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="153" name="直線コネクタ 152"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1267093"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="154" name="直線コネクタ 153"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1552575"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="150" name="テキスト ボックス 149"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="628650" y="962025"/>
+            <a:ext cx="1314450" cy="294009"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>IDCardFactory</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="151" name="テキスト ボックス 150"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1590676"/>
+            <a:ext cx="1066800" cy="653965"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>create</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>createProduct</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>registerProduct</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="155" name="テキスト ボックス 154"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1315007"/>
+            <a:ext cx="771525" cy="245214"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>owners</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>124384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="156" name="グループ化 155"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3952875" y="4239184"/>
+          <a:ext cx="1724025" cy="1209116"/>
+          <a:chOff x="400050" y="904875"/>
+          <a:chExt cx="1724025" cy="1206684"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="157" name="グループ化 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="904875"/>
+            <a:ext cx="1724025" cy="1187672"/>
+            <a:chOff x="400050" y="904875"/>
+            <a:chExt cx="1724025" cy="1187672"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="161" name="正方形/長方形 160"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="904875"/>
+              <a:ext cx="1724025" cy="1187672"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="162" name="直線コネクタ 161"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1267093"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="163" name="直線コネクタ 162"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1552575"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="158" name="テキスト ボックス 157"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="628650" y="962025"/>
+            <a:ext cx="1314450" cy="294009"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>IDCard</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="159" name="テキスト ボックス 158"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1590676"/>
+            <a:ext cx="1066800" cy="520883"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>use</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>getOwner</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="160" name="テキスト ボックス 159"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1315007"/>
+            <a:ext cx="771525" cy="245214"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>owner</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="705386" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="テキスト ボックス 166"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2695574" y="5238750"/>
+          <a:ext cx="705386" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Create</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>➤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>124384</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="168" name="直線矢印コネクタ 167"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="161" idx="0"/>
+          <a:endCxn id="29" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4814888" y="3343275"/>
+          <a:ext cx="0" cy="1581709"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="円/楕円 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581026" y="4972050"/>
+          <a:ext cx="1695450" cy="733426"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>145862</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>112246</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="線吹き出し 1 (枠付き) 105"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6241862" y="3152777"/>
+          <a:ext cx="3585884" cy="838198"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 42614"/>
+            <a:gd name="adj2" fmla="val -264"/>
+            <a:gd name="adj3" fmla="val 225133"/>
+            <a:gd name="adj4" fmla="val -119160"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>new</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>による実際のインスタンス生成を、インスタンス生成の為のメソッド呼び出しに代えることで、具体的なクラス名による束縛からスーパークラスを解放していることになる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8049,279 +10149,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D31"/>
+  <dimension ref="A2:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="4.125" customWidth="1"/>
-    <col min="3" max="3" width="27.25" customWidth="1"/>
-    <col min="4" max="4" width="51.875" customWidth="1"/>
+    <col min="3" max="3" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:5">
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="5">
+    <row r="11" spans="1:5">
+      <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" s="5">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="54">
+      <c r="C14" s="5">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" s="5">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16" s="5">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="5">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="5">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" s="5">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="5">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" s="5">
+        <v>11</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22" s="5">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23" s="5">
+        <v>13</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="5">
+        <v>14</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="5">
+        <v>15</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26" s="5">
+        <v>16</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" s="5">
+        <v>17</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28" s="5">
+        <v>18</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" s="5">
+        <v>19</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" s="5">
+        <v>20</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" s="5">
+        <v>21</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="3:5" ht="67.5">
+      <c r="C32" s="5">
+        <v>22</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="5">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="5">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="5">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="5">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="5">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="5">
-        <v>7</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="5">
-        <v>8</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="5">
-        <v>9</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="5">
-        <v>10</v>
-      </c>
-      <c r="C18" s="5" t="s">
+    <row r="33" spans="3:5">
+      <c r="C33" s="5">
         <v>23</v>
       </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="5">
-        <v>11</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="5">
+      <c r="D33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="5">
-        <v>13</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="5">
-        <v>14</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="5">
-        <v>15</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="5">
-        <v>16</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="5">
-        <v>17</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="5">
-        <v>18</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="5">
-        <v>19</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="5">
-        <v>20</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="5">
-        <v>21</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="2:4" ht="67.5">
-      <c r="B30" s="5">
-        <v>22</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="5">
-        <v>23</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="5"/>
+      <c r="E33" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="B9:D31">
-    <sortCondition ref="B9:B31"/>
+  <sortState ref="C9:E31">
+    <sortCondition ref="C9:C31"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C30" location="Command!A1" display="1.Command"/>
+    <hyperlink ref="D32" location="Command!A1" display="1.Command"/>
+    <hyperlink ref="D14" location="'Factory Method'!A1" display="Factory Method"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8330,9 +10443,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AJ29" sqref="AJ29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="AY33" sqref="AY33"/>
     </sheetView>
   </sheetViews>
@@ -8340,17 +10481,17 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/designpattern/system design/GoF_Design_Pattern.xlsx
+++ b/designpattern/system design/GoF_Design_Pattern.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GoF" sheetId="2" r:id="rId1"/>
     <sheet name="Factory Method" sheetId="3" r:id="rId2"/>
-    <sheet name="Command" sheetId="1" r:id="rId3"/>
+    <sheet name="Singleton" sheetId="4" r:id="rId3"/>
+    <sheet name="Command" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Factory Method'!$A$1:$BA$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Singleton!$A$1:$BA$58</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>■デザインパターンを学ぼう</t>
     <rPh sb="10" eb="11">
@@ -183,10 +185,6 @@
   </si>
   <si>
     <t>Factory Method</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Singleton</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -254,27 +252,90 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Struts1.x、SpringはSingletonらしいんだけど。。。</t>
+    <t>■Factory Method</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IteratorってJava標準APIにあるじゃん。違うの？</t>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>チガ</t>
+    <t>シンプルな窓口？</t>
+    <rPh sb="5" eb="7">
+      <t>マドグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Singleton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Singleton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*下線はクラス変数、クラスメソッドを表す。（UMLの規則）</t>
+    <rPh sb="1" eb="3">
+      <t>カセン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*-はprivate、+はpublicを表す。（UMLの規則）</t>
+    <rPh sb="20" eb="21">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.考察</t>
+    <rPh sb="2" eb="4">
+      <t>コウサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-2.Singletonを使うことでインスタンス内で相互影響が起きるのではないか？</t>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソウゴ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-1.Singletonを使いたいケースはどのような場合か？</t>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
-      <t>命令をクラスにする？
-行いたい仕事を「メソッドを呼び出す」という動的な処理として表現するのではなく、命令を表すクラスのインスタンスという</t>
-    </r>
-    <r>
       <rPr>
-        <b/>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
@@ -282,7 +343,8 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>１個の「もの」として表現する</t>
+      <t xml:space="preserve">インスタンスの作成をサブクラスに任せる？
+</t>
     </r>
     <r>
       <rPr>
@@ -293,61 +355,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>方法。Strutsはこの方法でリクエストを処理している。おそらくどのMVCフレームワークも同じことをしている。</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ドウテキ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>アラワ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="127" eb="128">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>インスタンスの作成をサブクラスに任せる？
+      <t xml:space="preserve">
 具体的な肉付けを全てサブクラスの側で行うことで、</t>
     </r>
     <r>
@@ -379,44 +387,55 @@
     <rPh sb="16" eb="17">
       <t>マカ</t>
     </rPh>
-    <rPh sb="21" eb="24">
+    <rPh sb="22" eb="25">
       <t>グタイテキ</t>
     </rPh>
-    <rPh sb="25" eb="26">
+    <rPh sb="26" eb="27">
       <t>ニク</t>
     </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ホネグ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IteratorってJava標準APIにあるじゃん。違うの？
+</t>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジュン</t>
+    </rPh>
     <rPh sb="26" eb="27">
-      <t>ヅ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ホネグ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>カンガ</t>
+      <t>チガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -425,13 +444,373 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■Factory Method</t>
+    <t>実世界に一つしか存在しないものを表現する場合。例えば、ウィンドウシステムやファイルシステムなどが挙げられる。</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ア</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シンプルな窓口？</t>
-    <rPh sb="5" eb="7">
-      <t>マドグチ</t>
+    <t>そういえば、馬込の案件の時はクライアント側（SWT）がSingletonで動いていたな。。。そういうこと？</t>
+    <rPh sb="6" eb="8">
+      <t>マゴメ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この疑問はStruts1.xがSingletonで動いていることからきている。</t>
+    <rPh sb="2" eb="4">
+      <t>ギモン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">命令をクラスにする？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+行いたい仕事を「メソッドを呼び出す」という動的な処理として表現するのではなく、命令を表すクラスのインスタンスという</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>１個の「もの」として表現する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方法。Strutsはこの方法でリクエストを処理している。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ドウテキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Struts1.x、Spring（デフォルトであり変更可能）はSingletonらしいんだけど。。。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+システムの中でインスタンスを１つしか作成させないという</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>制約を作る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <rPh sb="25" eb="27">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なぜSingletonで設計されているかというと、newでインスタンスを作成することはCPU負荷が大きいためである。</t>
+    <rPh sb="12" eb="14">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その為にはStruts1.xの何がSingletonで動いているのか調べる必要がある。</t>
+    <rPh sb="2" eb="3">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆Struts1.x Singleton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Singletonでインスタンス作成を起動時の一回だけにして、高レスポンスを施している。</t>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ホドコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Singletonで動いているのはActionクラス。実装するときはActionクラスを継承するため、実装したActionも当然Singletonで動く。</t>
+    <rPh sb="10" eb="11">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>トウゼン</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Struts1.xでは、Actionクラスにクラス変数を持たせず、ローカル変数にするという制約を設けている。</t>
+    <rPh sb="26" eb="28">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>モウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカル変数はスレッド単位に生成されるスタック領域にデータを持つため、各スレッド間で変数にアクセスする事はできない。</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIでプロセス管理する？⇒以降に持ち越し</t>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -440,7 +819,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +866,22 @@
       <u/>
       <sz val="11"/>
       <color theme="3" tint="0.39997558519241921"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -540,7 +935,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -559,11 +954,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2584,6 +2988,488 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="グループ化 7"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="666750" y="934010"/>
+          <a:ext cx="1724025" cy="1056716"/>
+          <a:chOff x="400050" y="904876"/>
+          <a:chExt cx="1724025" cy="1054590"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="9" name="グループ化 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="904876"/>
+            <a:ext cx="1724025" cy="1054590"/>
+            <a:chOff x="400050" y="904876"/>
+            <a:chExt cx="1724025" cy="1054590"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="904876"/>
+              <a:ext cx="1724025" cy="1054590"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="13" name="直線コネクタ 12"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1238575"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="14" name="直線コネクタ 13"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1505046"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="889923" y="952519"/>
+            <a:ext cx="734753" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Singleton</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1505125"/>
+            <a:ext cx="954300" cy="435907"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- Singleton</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" u="sng">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>+ getInstance</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="テキスト ボックス 47"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1238960"/>
+            <a:ext cx="795859" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" u="sng">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- Singleton</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>79187</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>45571</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="線吹き出し 1 (枠付き) 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2746187" y="952502"/>
+          <a:ext cx="3585884" cy="609598"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 42614"/>
+            <a:gd name="adj2" fmla="val -264"/>
+            <a:gd name="adj3" fmla="val 120872"/>
+            <a:gd name="adj4" fmla="val -36817"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Singleton</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>のコンストラクタを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>private</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>にすることで、インスタンスがシステム内で一つということを保証する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1" descr="図●ローカル変数以外は複数のスレッドから共有され得る&#10;Javaの変数は、ローカル変数だけがスレッドセーフ（複数のスレッドが同時に動作しても異常をきたさないこと）である。その理由は、ローカル変数はスレッドごとに割り振られる「Javaスタック」と呼ぶメモリー領域に格納されるからだ。これに対して共有メモリーである「ヒープ領域」に格納されるインスタンス変数やクラス変数は、複数のスレッドが共有する可能性があり、スレッドセーフではない。そのため、参照または更新するときにはロック（更新メソッドにsynchronizedキーワードを指定する）などを検討しなければならない"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1038225" y="5448300"/>
+          <a:ext cx="7620000" cy="3609975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7976,13 +8862,13 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>88712</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>142877</xdr:rowOff>
+      <xdr:rowOff>75641</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>55096</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>46691</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>147544</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7991,8 +8877,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4660712" y="4683127"/>
-          <a:ext cx="3585884" cy="951564"/>
+          <a:off x="4660712" y="4445935"/>
+          <a:ext cx="3585884" cy="912344"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -8606,14 +9492,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>78437</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8622,15 +9508,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1904999" y="4112560"/>
-          <a:ext cx="2364438" cy="470646"/>
+          <a:off x="1904999" y="3933265"/>
+          <a:ext cx="2364438" cy="1064559"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
             <a:gd name="adj1" fmla="val 55114"/>
             <a:gd name="adj2" fmla="val -795"/>
-            <a:gd name="adj3" fmla="val -91965"/>
-            <a:gd name="adj4" fmla="val -10673"/>
+            <a:gd name="adj3" fmla="val -25032"/>
+            <a:gd name="adj4" fmla="val -11147"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -8670,6 +9556,38 @@
               </a:solidFill>
             </a:rPr>
             <a:t>これが’色を変える’という命令クラス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>このように命令を増やす場合、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Command</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>インターフェースを実装して新しいクラスを作成する。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -10151,8 +11069,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -10160,7 +11079,7 @@
     <col min="2" max="2" width="4.125" customWidth="1"/>
     <col min="3" max="3" width="4.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56" customWidth="1"/>
+    <col min="5" max="5" width="76.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -10192,8 +11111,8 @@
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="B8" s="1" t="s">
-        <v>38</v>
+      <c r="B8" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -10210,15 +11129,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="40.5">
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>35</v>
+      <c r="E11" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -10246,19 +11165,19 @@
       <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>37</v>
+      <c r="E14" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="40.5">
       <c r="C15" s="5">
         <v>5</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>17</v>
+      <c r="D15" s="2" t="s">
+        <v>35</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>34</v>
+      <c r="E15" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -10266,7 +11185,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -10275,7 +11194,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -10284,7 +11203,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="5"/>
     </row>
@@ -10293,7 +11212,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="5"/>
     </row>
@@ -10302,7 +11221,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="5"/>
     </row>
@@ -10311,7 +11230,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="5"/>
     </row>
@@ -10320,7 +11239,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="5"/>
     </row>
@@ -10329,7 +11248,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="5"/>
     </row>
@@ -10338,7 +11257,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="5"/>
     </row>
@@ -10347,10 +11266,10 @@
         <v>15</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="3:5">
@@ -10358,7 +11277,7 @@
         <v>16</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -10367,7 +11286,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" s="5"/>
     </row>
@@ -10376,7 +11295,7 @@
         <v>18</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" s="5"/>
     </row>
@@ -10385,7 +11304,7 @@
         <v>19</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" s="5"/>
     </row>
@@ -10394,7 +11313,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="5"/>
     </row>
@@ -10403,7 +11322,7 @@
         <v>21</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" s="5"/>
     </row>
@@ -10414,8 +11333,8 @@
       <c r="D32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>36</v>
+      <c r="E32" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="3:5">
@@ -10435,6 +11354,7 @@
   <hyperlinks>
     <hyperlink ref="D32" location="Command!A1" display="1.Command"/>
     <hyperlink ref="D14" location="'Factory Method'!A1" display="Factory Method"/>
+    <hyperlink ref="D15" location="Singleton!A1" display="Singleton"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10446,14 +11366,14 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AJ29" sqref="AJ29"/>
+      <selection activeCell="AO30" sqref="AO30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
-        <v>39</v>
+      <c r="A2" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10471,16 +11391,122 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B50"/>
+  <dimension ref="A2:G33"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AY33" sqref="AY33"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
   <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="E14" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B50"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
+  <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
     </row>

--- a/designpattern/system design/GoF_Design_Pattern.xlsx
+++ b/designpattern/system design/GoF_Design_Pattern.xlsx
@@ -4,24 +4,28 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="GoF" sheetId="2" r:id="rId1"/>
-    <sheet name="Factory Method" sheetId="3" r:id="rId2"/>
-    <sheet name="Singleton" sheetId="4" r:id="rId3"/>
-    <sheet name="Command" sheetId="1" r:id="rId4"/>
+    <sheet name="Iterator" sheetId="6" r:id="rId2"/>
+    <sheet name="Factory Method" sheetId="3" r:id="rId3"/>
+    <sheet name="Singleton" sheetId="4" r:id="rId4"/>
+    <sheet name="Facade" sheetId="5" r:id="rId5"/>
+    <sheet name="Command" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Factory Method'!$A$1:$BA$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Singleton!$A$1:$BA$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Facade!$A$1:$BA$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Factory Method'!$A$1:$BA$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Iterator!$A$1:$BA$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Singleton!$A$1:$BA$77</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>■デザインパターンを学ぼう</t>
     <rPh sb="10" eb="11">
@@ -169,10 +173,6 @@
   </si>
   <si>
     <t>Interpreter</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Iterator</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -224,10 +224,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Façade</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Mediator</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -253,13 +249,6 @@
   </si>
   <si>
     <t>■Factory Method</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シンプルな窓口？</t>
-    <rPh sb="5" eb="7">
-      <t>マドグチ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -429,17 +418,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">IteratorってJava標準APIにあるじゃん。違うの？
-</t>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>チガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>２．GoFデザインパターンリスト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -597,6 +575,268 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>なぜSingletonで設計されているかというと、newでインスタンスを作成することはCPU負荷が大きいためである。</t>
+    <rPh sb="12" eb="14">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その為にはStruts1.xの何がSingletonで動いているのか調べる必要がある。</t>
+    <rPh sb="2" eb="3">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆Struts1.x Singleton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Singletonで動いているのはActionクラス。実装するときはActionクラスを継承するため、実装したActionも当然Singletonで動く。</t>
+    <rPh sb="10" eb="11">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>トウゼン</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Struts1.xでは、Actionクラスにクラス変数を持たせず、ローカル変数にするという制約を設けている。</t>
+    <rPh sb="26" eb="28">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>モウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカル変数はスレッド単位に生成されるスタック領域にデータを持つため、各スレッド間で変数にアクセスする事はできない。</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そうはいっても、必ず一つしか存在しないというパターンは少ないと思う。</t>
+    <rPh sb="8" eb="9">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Singletonでインスタンス作成を起動時の一回だけにして、高レスポンスを実現している。</t>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他にDIコンテナでプロセス管理する？という対策もあるようだ。⇒ペンディング</t>
+    <rPh sb="2" eb="3">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-3.Singletonパターンには問題点がいろいろある。</t>
+    <rPh sb="19" eb="22">
+      <t>モンダイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-3-1.マルチスレッド処理の場合、インスタンスが複数できてしまう可能性がある。</t>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>カノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-3-3.保守性が低い。</t>
+    <rPh sb="6" eb="9">
+      <t>ホシュセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-3-2.シングルトンパターンに依存したクラスの単体テストがやりにくい。</t>
+    <rPh sb="17" eb="19">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Façade</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Façade</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Springでprototypeが選択できる？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <rPh sb="17" eb="19">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Iterator</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Iterator</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>習得度</t>
+    <rPh sb="0" eb="2">
+      <t>シュウトク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <i/>
@@ -607,7 +847,65 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Struts1.x、Spring（デフォルトであり変更可能）はSingletonらしいんだけど。。。
+      <t xml:space="preserve">シンプルな窓口？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+処理の窓口役のクラス。呼び出し側はどのような処理が行われているかを意識しなくていい。</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>マドグチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>マドグチ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Struts1.x、Spring（デフォルトで変更可能）はSingletonらしい。。。
 </t>
     </r>
     <r>
@@ -645,172 +943,150 @@
       </rPr>
       <t>。</t>
     </r>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
+    </rPh>
     <rPh sb="25" eb="27">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
       <t>カノウ</t>
     </rPh>
-    <rPh sb="57" eb="58">
+    <rPh sb="51" eb="52">
       <t>ナカ</t>
     </rPh>
-    <rPh sb="70" eb="72">
+    <rPh sb="64" eb="66">
       <t>サクセイ</t>
     </rPh>
-    <rPh sb="79" eb="81">
+    <rPh sb="73" eb="75">
       <t>セイヤク</t>
     </rPh>
-    <rPh sb="82" eb="83">
+    <rPh sb="76" eb="77">
       <t>ツク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>なぜSingletonで設計されているかというと、newでインスタンスを作成することはCPU負荷が大きいためである。</t>
-    <rPh sb="12" eb="14">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>オオ</t>
+    <t>有</t>
+    <rPh sb="0" eb="1">
+      <t>アリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>その為にはStruts1.xの何がSingletonで動いているのか調べる必要がある。</t>
-    <rPh sb="2" eb="3">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>シラ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒツヨウ</t>
+    <t>ペンディング
+有無</t>
+    <rPh sb="7" eb="9">
+      <t>ウム</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>◆Struts1.x Singleton</t>
+    <t>ペンディング
+内容</t>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Singletonでインスタンス作成を起動時の一回だけにして、高レスポンスを施している。</t>
-    <rPh sb="16" eb="18">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>イッカイ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>コウ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ホドコ</t>
+    <t>Singletonパターンの問題点について</t>
+    <rPh sb="14" eb="17">
+      <t>モンダイテン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Singletonで動いているのはActionクラス。実装するときはActionクラスを継承するため、実装したActionも当然Singletonで動く。</t>
-    <rPh sb="10" eb="11">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ケイショウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>トウゼン</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>ウゴ</t>
+    <t>画像印刷処理</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・Struts1.xでは、Actionクラスにクラス変数を持たせず、ローカル変数にするという制約を設けている。</t>
-    <rPh sb="26" eb="28">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>セイヤク</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>モウ</t>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Factory Methodとの違いは工場の抽象化？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <rPh sb="16" eb="17">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>チュウショウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ローカル変数はスレッド単位に生成されるスタック領域にデータを持つため、各スレッド間で変数にアクセスする事はできない。</t>
-    <rPh sb="4" eb="6">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>タンイ</t>
-    </rPh>
+    <r>
+      <t xml:space="preserve">IteratorってJava標準APIにあるじゃん。違うの？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>何かがたくさん集まっているときに、それを順番に指し示していき、全体をスキャンしていく処理を行うためのもの。</t>
+    </r>
     <rPh sb="14" eb="16">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>リョウイキ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DIでプロセス管理する？⇒以降に持ち越し</t>
-    <rPh sb="7" eb="9">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>コ</t>
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>サシシメ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -935,7 +1211,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -960,14 +1236,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -985,6 +1273,2062 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57709</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="グループ化 9"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="771525" y="2629459"/>
+          <a:ext cx="1724025" cy="1428191"/>
+          <a:chOff x="400050" y="904875"/>
+          <a:chExt cx="1724025" cy="1425318"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="11" name="グループ化 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="904875"/>
+            <a:ext cx="1724025" cy="1425318"/>
+            <a:chOff x="400050" y="904875"/>
+            <a:chExt cx="1724025" cy="1425318"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="904875"/>
+              <a:ext cx="1724025" cy="1425318"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="16" name="直線コネクタ 15"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1267093"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="17" name="直線コネクタ 16"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1533563"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="897950" y="962025"/>
+            <a:ext cx="775853" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BookShelf</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1533641"/>
+            <a:ext cx="908582" cy="779668"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>getBookAt</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>appendBook</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>getLength</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>iterator</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1267478"/>
+            <a:ext cx="526811" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>books</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57709</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="0"/>
+          <a:endCxn id="43" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1633538" y="1809750"/>
+          <a:ext cx="0" cy="819709"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="692049" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981324" y="1028700"/>
+          <a:ext cx="692049" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Create</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>→</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>124384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="38" name="グループ化 37"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="771525" y="810184"/>
+          <a:ext cx="1724025" cy="999566"/>
+          <a:chOff x="400050" y="904875"/>
+          <a:chExt cx="1724025" cy="997555"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="39" name="グループ化 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="904875"/>
+            <a:ext cx="1724025" cy="997555"/>
+            <a:chOff x="400050" y="904875"/>
+            <a:chExt cx="1724025" cy="997555"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="904875"/>
+              <a:ext cx="1724025" cy="997555"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="44" name="直線コネクタ 43"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1438198"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="45" name="直線コネクタ 44"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1562080"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="758709" y="962025"/>
+            <a:ext cx="1054328" cy="435907"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>&lt;&lt; interface &gt;&gt;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Aggregate</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="テキスト ボックス 40"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1581171"/>
+            <a:ext cx="622093" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>iterator</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="55" name="グループ化 54"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4314825" y="762558"/>
+          <a:ext cx="1724025" cy="1085291"/>
+          <a:chOff x="3219450" y="810183"/>
+          <a:chExt cx="1724025" cy="1085291"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="19" name="グループ化 18"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3219450" y="810183"/>
+            <a:ext cx="1724025" cy="1085291"/>
+            <a:chOff x="400050" y="904874"/>
+            <a:chExt cx="1724025" cy="1083108"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="20" name="グループ化 5"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="400050" y="904874"/>
+              <a:ext cx="1724025" cy="1083108"/>
+              <a:chOff x="400050" y="904874"/>
+              <a:chExt cx="1724025" cy="1083108"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="400050" y="904874"/>
+                <a:ext cx="1724025" cy="1083108"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="23" name="直線コネクタ 22"/>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="400050" y="1390669"/>
+                <a:ext cx="1714500" cy="0"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="24" name="直線コネクタ 23"/>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="400050" y="1524057"/>
+                <a:ext cx="1714500" cy="0"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="758715" y="962024"/>
+              <a:ext cx="1054328" cy="435907"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+                <a:t>&lt;&lt; interface &gt;&gt;</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Iterator</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="テキスト ボックス 53"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3286125" y="1419225"/>
+            <a:ext cx="651140" cy="436786"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>hasNext</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>next</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>105054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>109817</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2495550" y="1305204"/>
+          <a:ext cx="1819275" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57709</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="59" name="グループ化 58"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4314825" y="2629459"/>
+          <a:ext cx="1724025" cy="1275791"/>
+          <a:chOff x="400050" y="904875"/>
+          <a:chExt cx="1724025" cy="1273225"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="60" name="グループ化 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="904875"/>
+            <a:ext cx="1724025" cy="1273225"/>
+            <a:chOff x="400050" y="904875"/>
+            <a:chExt cx="1724025" cy="1273225"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="64" name="正方形/長方形 63"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="904875"/>
+              <a:ext cx="1724025" cy="1273225"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="65" name="直線コネクタ 64"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1267093"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="66" name="直線コネクタ 65"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1723680"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="61" name="テキスト ボックス 60"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="671799" y="962025"/>
+            <a:ext cx="1228157" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BookShelfIterator</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="テキスト ボックス 61"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1723757"/>
+            <a:ext cx="651140" cy="435907"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>hasNext</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>next</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="63" name="テキスト ボックス 62"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1267478"/>
+            <a:ext cx="756233" cy="435907"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>bookShelf</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>index</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57709</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直線矢印コネクタ 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="0"/>
+          <a:endCxn id="22" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5176838" y="1847849"/>
+          <a:ext cx="0" cy="781610"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>184057</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>35018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>126907</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>136431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="フローチャート : 判断 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4184557" y="3292568"/>
+          <a:ext cx="133350" cy="101413"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>184057</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>86005</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 70"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="3"/>
+          <a:endCxn id="15" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2495550" y="3343274"/>
+          <a:ext cx="1689007" cy="281"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="フローチャート : 判断 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1574707" y="4083144"/>
+          <a:ext cx="133350" cy="101413"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>117382</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133909</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="3"/>
+          <a:endCxn id="81" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1641382" y="4200526"/>
+          <a:ext cx="1681" cy="733983"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="77" name="グループ化 76"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="781050" y="4934509"/>
+          <a:ext cx="1724025" cy="999566"/>
+          <a:chOff x="400050" y="904875"/>
+          <a:chExt cx="1724025" cy="997555"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="78" name="グループ化 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="904875"/>
+            <a:ext cx="1724025" cy="997555"/>
+            <a:chOff x="400050" y="904875"/>
+            <a:chExt cx="1724025" cy="997555"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="81" name="正方形/長方形 80"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="904875"/>
+              <a:ext cx="1724025" cy="997555"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="82" name="直線コネクタ 81"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1276599"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="83" name="直線コネクタ 82"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1562080"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="テキスト ボックス 78"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1044301" y="962025"/>
+            <a:ext cx="483146" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Book</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="テキスト ボックス 79"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1581171"/>
+            <a:ext cx="710066" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>getName</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="テキスト ボックス 83"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1267478"/>
+            <a:ext cx="509242" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>name</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2000,7 +4344,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="705386" cy="275717"/>
+    <xdr:ext cx="692049" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="146" name="テキスト ボックス 145"/>
@@ -2008,8 +4352,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2695574" y="2562225"/>
-          <a:ext cx="705386" cy="275717"/>
+          <a:off x="2695574" y="1876425"/>
+          <a:ext cx="692049" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2045,7 +4389,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>➤</a:t>
+            <a:t>→</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2726,7 +5070,7 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="705386" cy="275717"/>
+    <xdr:ext cx="692049" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="167" name="テキスト ボックス 166"/>
@@ -2734,8 +5078,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2695574" y="5238750"/>
-          <a:ext cx="705386" cy="275717"/>
+          <a:off x="2695574" y="4552950"/>
+          <a:ext cx="692049" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2771,7 +5115,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>➤</a:t>
+            <a:t>→</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2987,7 +5331,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3466,10 +5810,1747 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>136338</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="線吹き出し 1 (枠付き) 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7184838" y="5562602"/>
+          <a:ext cx="2854512" cy="485773"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 42614"/>
+            <a:gd name="adj2" fmla="val -264"/>
+            <a:gd name="adj3" fmla="val 295383"/>
+            <a:gd name="adj4" fmla="val -13577"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ローカル変数はスレッド単位で管理される。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="円/楕円 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="6953250"/>
+          <a:ext cx="1247775" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38658</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="1"/>
+          <a:endCxn id="31" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1633538" y="2514879"/>
+          <a:ext cx="1585912" cy="781329"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="583429" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057649" y="1666875"/>
+          <a:ext cx="583429" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Uses</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>↓</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38659</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>79109</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="グループ化 25"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="771525" y="3296209"/>
+          <a:ext cx="1724025" cy="1583500"/>
+          <a:chOff x="400050" y="904875"/>
+          <a:chExt cx="1724025" cy="1580314"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="27" name="グループ化 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="904875"/>
+            <a:ext cx="1724025" cy="1577410"/>
+            <a:chOff x="400050" y="904875"/>
+            <a:chExt cx="1724025" cy="1577410"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="904875"/>
+              <a:ext cx="1724025" cy="1577410"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="32" name="直線コネクタ 31"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1267093"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="33" name="直線コネクタ 32"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1533563"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="858514" y="962025"/>
+            <a:ext cx="854721" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>HtmlWriter</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1533641"/>
+            <a:ext cx="774571" cy="951548"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>title</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>paragraph</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>link</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>mailto</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>close</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1267478"/>
+            <a:ext cx="533736" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>writer</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>12512</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="線吹き出し 1 (枠付き) 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5156012" y="1362075"/>
+          <a:ext cx="3892738" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 42614"/>
+            <a:gd name="adj2" fmla="val -264"/>
+            <a:gd name="adj3" fmla="val 119451"/>
+            <a:gd name="adj4" fmla="val -12910"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PageMaker</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラスが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Facade</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>役となって処理を一任する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Facade</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を入れ子にすることも可能。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38659</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="54" name="グループ化 53"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3219450" y="895909"/>
+          <a:ext cx="1724025" cy="609041"/>
+          <a:chOff x="400050" y="904875"/>
+          <a:chExt cx="1724025" cy="607816"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="55" name="グループ化 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="904875"/>
+            <a:ext cx="1724025" cy="607816"/>
+            <a:chOff x="400050" y="904875"/>
+            <a:chExt cx="1724025" cy="607816"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="57" name="正方形/長方形 56"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="904875"/>
+              <a:ext cx="1724025" cy="607816"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="58" name="直線コネクタ 57"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1238575"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="59" name="直線コネクタ 58"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1371964"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="テキスト ボックス 55"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1041898" y="962024"/>
+            <a:ext cx="487954" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+              <a:t>Main</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>80963</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>80963</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95809</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4081463" y="1504950"/>
+          <a:ext cx="0" cy="648259"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38659</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="62" name="グループ化 61"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5543550" y="3296209"/>
+          <a:ext cx="1724025" cy="761441"/>
+          <a:chOff x="400050" y="904875"/>
+          <a:chExt cx="1724025" cy="759909"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="63" name="グループ化 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="904875"/>
+            <a:ext cx="1724025" cy="759909"/>
+            <a:chOff x="400050" y="904875"/>
+            <a:chExt cx="1724025" cy="759909"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="67" name="正方形/長方形 66"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="904875"/>
+              <a:ext cx="1724025" cy="759909"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="68" name="直線コネクタ 67"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1267093"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="69" name="直線コネクタ 68"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1371964"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="64" name="テキスト ボックス 63"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="918629" y="962025"/>
+            <a:ext cx="734496" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Database</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="65" name="テキスト ボックス 64"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1353030"/>
+            <a:ext cx="963534" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" u="sng">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>getProperties</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38659</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線矢印コネクタ 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="67" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4943475" y="2514880"/>
+          <a:ext cx="1462088" cy="781329"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="37" name="グループ化 36"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3200400" y="2153209"/>
+          <a:ext cx="1743075" cy="723341"/>
+          <a:chOff x="3200400" y="2153209"/>
+          <a:chExt cx="1743075" cy="723341"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="8" name="グループ化 7"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3219450" y="2153209"/>
+            <a:ext cx="1724025" cy="723341"/>
+            <a:chOff x="400050" y="904874"/>
+            <a:chExt cx="1724025" cy="721885"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="9" name="グループ化 5"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="400050" y="904874"/>
+              <a:ext cx="1724025" cy="721885"/>
+              <a:chOff x="400050" y="904874"/>
+              <a:chExt cx="1724025" cy="721885"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="400050" y="904874"/>
+                <a:ext cx="1724025" cy="721885"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="13" name="直線コネクタ 12"/>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="400050" y="1238575"/>
+                <a:ext cx="1714500" cy="0"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="14" name="直線コネクタ 13"/>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="400050" y="1371964"/>
+                <a:ext cx="1714500" cy="0"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="861305" y="962024"/>
+              <a:ext cx="849143" cy="264028"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+                <a:t>PageMaker</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="テキスト ボックス 79"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3200400" y="2590800"/>
+            <a:ext cx="1321324" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" u="sng">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>makeWelcomePage</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="583429" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="テキスト ボックス 85"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590674" y="2724150"/>
+          <a:ext cx="583429" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Uses</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>↓</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="583429" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="テキスト ボックス 86"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6372224" y="2724150"/>
+          <a:ext cx="583429" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Uses</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>↓</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8459,8 +12540,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
       <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -8468,7 +12549,7 @@
       <xdr:col>40</xdr:col>
       <xdr:colOff>128867</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8478,9 +12559,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2935941" y="18657794"/>
-          <a:ext cx="4812926" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="1367118" y="18657794"/>
+          <a:ext cx="6381749" cy="44824"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8956,7 +13037,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>そのことで、このクラスにおいてどんな命令がされたのかという内容を意識することなく、ただ</a:t>
+            <a:t>そのことで、このクラスにおいてどんな命令がされたのかという内容を意識することなく、ただリスト内の</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -11067,11 +15148,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E33"/>
+  <dimension ref="A2:H33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -11080,45 +15161,48 @@
     <col min="3" max="3" width="4.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="76.875" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:8">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:8">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="10" t="s">
-        <v>44</v>
+    <row r="8" spans="1:8">
+      <c r="B8" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:8">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:8" ht="27">
       <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
@@ -11128,233 +15212,346 @@
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" ht="40.5">
+    <row r="11" spans="1:8" ht="54">
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
+      <c r="D11" s="2" t="s">
+        <v>62</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>43</v>
+      <c r="E11" s="12" t="s">
+        <v>74</v>
       </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:8">
       <c r="C12" s="5">
         <v>2</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:8">
       <c r="C13" s="5">
         <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:5" ht="54">
+    <row r="14" spans="1:8" ht="54">
       <c r="C14" s="5">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>42</v>
+      <c r="E14" s="14" t="s">
+        <v>39</v>
       </c>
+      <c r="F14" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:5" ht="40.5">
+    <row r="15" spans="1:8" ht="40.5">
       <c r="C15" s="5">
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>49</v>
+      <c r="E15" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:8" ht="40.5">
       <c r="C16" s="5">
         <v>6</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="3:8">
       <c r="C17" s="5">
         <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:8" ht="40.5">
       <c r="C18" s="5">
         <v>8</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:8">
       <c r="C19" s="5">
         <v>9</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:8">
       <c r="C20" s="5">
         <v>10</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:8">
       <c r="C21" s="5">
         <v>11</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:8">
       <c r="C22" s="5">
         <v>12</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:8">
       <c r="C23" s="5">
         <v>13</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:8">
       <c r="C24" s="5">
         <v>14</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:8" ht="40.5">
       <c r="C25" s="5">
         <v>15</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>26</v>
+      <c r="D25" s="2" t="s">
+        <v>58</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>34</v>
+      <c r="E25" s="14" t="s">
+        <v>66</v>
       </c>
+      <c r="F25" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" spans="3:8">
       <c r="C26" s="5">
         <v>16</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="3:5">
+    <row r="27" spans="3:8">
       <c r="C27" s="5">
         <v>17</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="3:8">
       <c r="C28" s="5">
         <v>18</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="3:5">
+    <row r="29" spans="3:8">
       <c r="C29" s="5">
         <v>19</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="3:5">
+    <row r="30" spans="3:8">
       <c r="C30" s="5">
         <v>20</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="3:5">
+    <row r="31" spans="3:8">
       <c r="C31" s="5">
         <v>21</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="3:5" ht="67.5">
+    <row r="32" spans="3:8" ht="67.5">
       <c r="C32" s="5">
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>48</v>
+      <c r="E32" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="9">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="33" spans="3:5">
+    <row r="33" spans="3:8">
       <c r="C33" s="5">
         <v>23</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="11"/>
     </row>
   </sheetData>
   <sortState ref="C9:E31">
     <sortCondition ref="C9:C31"/>
   </sortState>
   <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G33">
+      <formula1>"有,無"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="D32" location="Command!A1" display="1.Command"/>
     <hyperlink ref="D14" location="'Factory Method'!A1" display="Factory Method"/>
     <hyperlink ref="D15" location="Singleton!A1" display="Singleton"/>
+    <hyperlink ref="D25" location="Facade!A1" display="Façade"/>
+    <hyperlink ref="D11" location="Iterator!A1" display="Iterator"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -11366,14 +15563,14 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AO30" sqref="AO30"/>
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11391,102 +15588,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G33"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AO30" sqref="AO30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="E13" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="E14" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="D24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7">
-      <c r="D26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7">
-      <c r="E27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7">
-      <c r="E28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7">
-      <c r="E29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7">
-      <c r="F31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7">
-      <c r="G32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="7:7">
-      <c r="G33" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -11499,9 +15616,172 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:G61"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="E14" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="E29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="G32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4">
+      <c r="C56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="D57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="D59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="D61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B50"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AL34" sqref="AL34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
   <sheetData>

--- a/designpattern/system design/GoF_Design_Pattern.xlsx
+++ b/designpattern/system design/GoF_Design_Pattern.xlsx
@@ -4,28 +4,30 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="GoF" sheetId="2" r:id="rId1"/>
     <sheet name="Iterator" sheetId="6" r:id="rId2"/>
-    <sheet name="Factory Method" sheetId="3" r:id="rId3"/>
-    <sheet name="Singleton" sheetId="4" r:id="rId4"/>
-    <sheet name="Facade" sheetId="5" r:id="rId5"/>
-    <sheet name="Command" sheetId="1" r:id="rId6"/>
+    <sheet name="Adapter" sheetId="7" r:id="rId3"/>
+    <sheet name="Factory Method" sheetId="3" r:id="rId4"/>
+    <sheet name="Singleton" sheetId="4" r:id="rId5"/>
+    <sheet name="Facade" sheetId="5" r:id="rId6"/>
+    <sheet name="Command" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Facade!$A$1:$BA$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Factory Method'!$A$1:$BA$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Iterator!$A$1:$BA$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Singleton!$A$1:$BA$77</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Adapter!$A$1:$BA$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Facade!$A$1:$BA$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Factory Method'!$A$1:$BA$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Iterator!$A$1:$BA$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Singleton!$A$1:$BA$77</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="106">
   <si>
     <t>■デザインパターンを学ぼう</t>
     <rPh sb="10" eb="11">
@@ -173,10 +175,6 @@
   </si>
   <si>
     <t>Interpreter</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Adapter</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -415,10 +413,6 @@
     <rPh sb="91" eb="92">
       <t>カンガ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２．GoFデザインパターンリスト</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -723,19 +717,6 @@
     </rPh>
     <rPh sb="38" eb="40">
       <t>ジツゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>その他にDIコンテナでプロセス管理する？という対策もあるようだ。⇒ペンディング</t>
-    <rPh sb="2" eb="3">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>タイサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1090,6 +1071,279 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>その他にDIコンテナでプロセス管理するという対策もあるようだ。⇒ペンディング</t>
+    <rPh sb="2" eb="3">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Adapter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Adapter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1.クラス図（継承パターン）</t>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2.クラス図（委譲パターン）</t>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３．GoFデザインパターンリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス図</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>依存</t>
+    <rPh sb="0" eb="2">
+      <t>イゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実現（インターフェースの実装）</t>
+    <rPh sb="0" eb="2">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誘導可能性付き関連。参照される側に矢印を付与する。</t>
+    <rPh sb="0" eb="2">
+      <t>ユウドウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>継承（UML仕様上、正確には白抜きの矢印を使用する）</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シロヌ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>両方のオブジェクトが相手の参照を持つ。</t>
+    <rPh sb="0" eb="2">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集約（aggregation）。カーディナリを考慮した関連。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウヤク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abstract class ParentClass{</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int fileld1;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>static char fileld2;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abstract void methodA();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>double methodB(){</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// …</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class ChildClass extends ParentClass{</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void methodA(){</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>static void methodC(){</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class Something{</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>private int privateField;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>protected int protectedField;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public int publicField;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int packageField;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>private void privateMethod(){</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void packageMethod(){</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public void publicMethod(){</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>protected void protectedMethod(){</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．UML凡例</t>
+    <rPh sb="5" eb="7">
+      <t>ハンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ラッピング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+「すでに提供されているもの」と「必要なもの」の間の「ずれ」を埋めるようなデザインパターン。</t>
+    </r>
+    <rPh sb="11" eb="13">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1211,7 +1465,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1257,6 +1511,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1276,15 +1542,1578 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76760</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線矢印コネクタ 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="904875" y="10020300"/>
+          <a:ext cx="1390650" cy="560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>105335</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="904875" y="10220325"/>
+          <a:ext cx="1390650" cy="560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98331</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="10385331"/>
+          <a:ext cx="1304925" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>149038</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フローチャート : 判断 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="857250" y="10334625"/>
+          <a:ext cx="133350" cy="101413"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76760</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="904875" y="10191750"/>
+          <a:ext cx="1390650" cy="560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="904875" y="10725150"/>
+          <a:ext cx="1390650" cy="560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>105335</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="904875" y="10048875"/>
+          <a:ext cx="1390650" cy="560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1838325</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="グループ化 13"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="876300" y="2962275"/>
+          <a:ext cx="1838325" cy="1266825"/>
+          <a:chOff x="400050" y="904875"/>
+          <a:chExt cx="1724025" cy="1264277"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="15" name="グループ化 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="904875"/>
+            <a:ext cx="1724025" cy="1264277"/>
+            <a:chOff x="400050" y="904875"/>
+            <a:chExt cx="1724025" cy="1264277"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="904875"/>
+              <a:ext cx="1724025" cy="1264277"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="20" name="直線コネクタ 19"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1267093"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="21" name="直線コネクタ 20"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1733185"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="852522" y="962025"/>
+            <a:ext cx="866712" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ParentClass</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1723757"/>
+            <a:ext cx="669766" cy="435907"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>methodA</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>methodB</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1267478"/>
+            <a:ext cx="508281" cy="435907"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>field1</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" u="sng">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>field2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1838325</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="グループ化 21"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="876300" y="4819651"/>
+          <a:ext cx="1838325" cy="971550"/>
+          <a:chOff x="400050" y="904876"/>
+          <a:chExt cx="1724025" cy="969596"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="23" name="グループ化 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="904876"/>
+            <a:ext cx="1724025" cy="969596"/>
+            <a:chOff x="400050" y="904876"/>
+            <a:chExt cx="1724025" cy="969596"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="904876"/>
+              <a:ext cx="1724025" cy="969596"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="28" name="直線コネクタ 27"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1267093"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="29" name="直線コネクタ 28"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1409986"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="881083" y="962025"/>
+            <a:ext cx="771493" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ChildClass</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1410064"/>
+            <a:ext cx="719043" cy="435907"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>methodA</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" u="sng">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>methodC</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>919163</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>919163</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="0"/>
+          <a:endCxn id="19" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1795463" y="12630150"/>
+          <a:ext cx="0" cy="590551"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2114549</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="線吹き出し 1 (枠付き) 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4867274" y="10906126"/>
+          <a:ext cx="4657725" cy="1028699"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 42614"/>
+            <a:gd name="adj2" fmla="val -264"/>
+            <a:gd name="adj3" fmla="val 63305"/>
+            <a:gd name="adj4" fmla="val -56494"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラス名：抽象クラスは斜字体。インターフェースも斜字体にし、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"&lt;&lt;inter face&gt;&gt;"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステレオタイプを付ける。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>フィールド名：クラスフィールドには下線を付ける。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッド名：抽象メソッドは斜字体。クラスメソッドには下線を付ける。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1838325</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="34" name="グループ化 33"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="876300" y="6372225"/>
+          <a:ext cx="1838325" cy="1981200"/>
+          <a:chOff x="400050" y="904875"/>
+          <a:chExt cx="1724025" cy="1977215"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="35" name="グループ化 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="904875"/>
+            <a:ext cx="1724025" cy="1977215"/>
+            <a:chOff x="400050" y="904875"/>
+            <a:chExt cx="1724025" cy="1977215"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="904875"/>
+              <a:ext cx="1724025" cy="1977215"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="40" name="直線コネクタ 39"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1267093"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="41" name="直線コネクタ 40"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="2056383"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="904122" y="962025"/>
+            <a:ext cx="763514" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Something</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="テキスト ボックス 36"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="2056461"/>
+            <a:ext cx="1202307" cy="779668"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>-privateMethod</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>#protectedMethod</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+publicMethod</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>~packageMethod</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="テキスト ボックス 37"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1267478"/>
+            <a:ext cx="1027138" cy="779669"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>-privateField</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>#protectedField</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>+publicField</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>~packageField</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>57709</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1294,7 +3123,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="771525" y="2629459"/>
+          <a:off x="771525" y="3486709"/>
           <a:ext cx="1724025" cy="1428191"/>
           <a:chOff x="400050" y="904875"/>
           <a:chExt cx="1724025" cy="1425318"/>
@@ -1629,13 +3458,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>109538</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>109538</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>57709</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1684,7 +3513,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="692049" cy="264560"/>
@@ -1743,13 +3572,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>124384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1759,7 +3588,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="771525" y="810184"/>
+          <a:off x="771525" y="1153084"/>
           <a:ext cx="1724025" cy="999566"/>
           <a:chOff x="400050" y="904875"/>
           <a:chExt cx="1724025" cy="997555"/>
@@ -1945,14 +3774,14 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Aggregate</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2000,14 +3829,14 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>iterator</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2023,13 +3852,13 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>76758</xdr:rowOff>
+      <xdr:rowOff>57707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2038,10 +3867,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4314825" y="762558"/>
-          <a:ext cx="1724025" cy="1085291"/>
-          <a:chOff x="3219450" y="810183"/>
-          <a:chExt cx="1724025" cy="1085291"/>
+          <a:off x="4314825" y="743507"/>
+          <a:ext cx="1724025" cy="1828243"/>
+          <a:chOff x="3219450" y="802836"/>
+          <a:chExt cx="1724025" cy="1410137"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -2051,10 +3880,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="3219450" y="810183"/>
-            <a:ext cx="1724025" cy="1085291"/>
-            <a:chOff x="400050" y="904874"/>
-            <a:chExt cx="1724025" cy="1083108"/>
+            <a:off x="3219450" y="802836"/>
+            <a:ext cx="1724025" cy="1410137"/>
+            <a:chOff x="400050" y="897542"/>
+            <a:chExt cx="1724025" cy="1407301"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
@@ -2064,10 +3893,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="400050" y="904874"/>
-              <a:ext cx="1724025" cy="1083108"/>
-              <a:chOff x="400050" y="904874"/>
-              <a:chExt cx="1724025" cy="1083108"/>
+              <a:off x="400050" y="897542"/>
+              <a:ext cx="1724025" cy="1407301"/>
+              <a:chOff x="400050" y="897542"/>
+              <a:chExt cx="1724025" cy="1407301"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -2077,8 +3906,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="400050" y="904874"/>
-                <a:ext cx="1724025" cy="1083108"/>
+                <a:off x="400050" y="897542"/>
+                <a:ext cx="1724025" cy="1407301"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -2124,7 +3953,7 @@
             </xdr:nvCxnSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="400050" y="1390669"/>
+                <a:off x="400050" y="1317350"/>
                 <a:ext cx="1714500" cy="0"/>
               </a:xfrm>
               <a:prstGeom prst="line">
@@ -2158,7 +3987,7 @@
             </xdr:nvCxnSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="400050" y="1524057"/>
+                <a:off x="400050" y="1414078"/>
                 <a:ext cx="1714500" cy="0"/>
               </a:xfrm>
               <a:prstGeom prst="line">
@@ -2194,7 +4023,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="758715" y="962024"/>
-              <a:ext cx="1054328" cy="435907"/>
+              <a:ext cx="1054328" cy="336219"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2233,14 +4062,14 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                 </a:rPr>
                 <a:t>Iterator</a:t>
               </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -2256,8 +4085,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3286125" y="1419225"/>
-            <a:ext cx="651140" cy="436786"/>
+            <a:off x="3286125" y="1331065"/>
+            <a:ext cx="873572" cy="868255"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2287,30 +4116,94 @@
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>hasNext</a:t>
             </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" i="1"/>
           </a:p>
           <a:p>
-            <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>next</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" i="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>hasPrevious</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" i="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>previous</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" i="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>goHead</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" i="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>goTail</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -2322,14 +4215,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>105054</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>109817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>109817</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114579</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2340,9 +4233,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2495550" y="1305204"/>
-          <a:ext cx="1819275" cy="4763"/>
+        <a:xfrm>
+          <a:off x="2495550" y="1652867"/>
+          <a:ext cx="1819275" cy="4762"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2377,14 +4270,14 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>57709</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2393,10 +4286,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4314825" y="2629459"/>
-          <a:ext cx="1724025" cy="1275791"/>
+          <a:off x="4314825" y="3486709"/>
+          <a:ext cx="1724025" cy="2028265"/>
           <a:chOff x="400050" y="904875"/>
-          <a:chExt cx="1724025" cy="1273225"/>
+          <a:chExt cx="1724025" cy="2024185"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -2407,9 +4300,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="400050" y="904875"/>
-            <a:ext cx="1724025" cy="1273225"/>
+            <a:ext cx="1724025" cy="2024185"/>
             <a:chOff x="400050" y="904875"/>
-            <a:chExt cx="1724025" cy="1273225"/>
+            <a:chExt cx="1724025" cy="2024185"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -2420,7 +4313,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="400050" y="904875"/>
-              <a:ext cx="1724025" cy="1273225"/>
+              <a:ext cx="1724025" cy="2024185"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2590,8 +4483,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="447675" y="1723757"/>
-            <a:ext cx="651140" cy="435907"/>
+            <a:off x="447675" y="1723756"/>
+            <a:ext cx="873572" cy="1123428"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2640,6 +4533,62 @@
                 </a:solidFill>
               </a:rPr>
               <a:t>next</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>hasPrevious</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>previous</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>goHead</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>goTail</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
               <a:solidFill>
@@ -2717,13 +4666,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>33338</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>33338</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>57709</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2736,8 +4685,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5176838" y="1847849"/>
-          <a:ext cx="0" cy="781610"/>
+          <a:off x="5176838" y="2571750"/>
+          <a:ext cx="0" cy="914959"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2772,13 +4721,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>184057</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>35018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>126907</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>136431</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2834,13 +4783,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>184057</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>86005</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2889,13 +4838,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2951,13 +4900,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>117382</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>133909</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3006,13 +4955,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>133909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3022,7 +4971,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="781050" y="4934509"/>
+          <a:off x="781050" y="5791759"/>
           <a:ext cx="1724025" cy="999566"/>
           <a:chOff x="400050" y="904875"/>
           <a:chExt cx="1724025" cy="997555"/>
@@ -3325,10 +5274,3188 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="円/楕円 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409574" y="2238375"/>
+          <a:ext cx="2486025" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="線吹き出し 1 (枠付き) 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="5172075"/>
+          <a:ext cx="4362450" cy="838198"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 42614"/>
+            <a:gd name="adj2" fmla="val -264"/>
+            <a:gd name="adj3" fmla="val -106687"/>
+            <a:gd name="adj4" fmla="val -13100"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Book</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>オブジェクトを配列に持つ本棚オブジェクト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>iterator</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メソッドは本棚配列を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"BookShelfIterator"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>オブジェクトへ渡す。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="線吹き出し 1 (枠付き) 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6486525" y="923925"/>
+          <a:ext cx="2781300" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 42614"/>
+            <a:gd name="adj2" fmla="val -264"/>
+            <a:gd name="adj3" fmla="val 191"/>
+            <a:gd name="adj4" fmla="val -30039"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼び出し側はインターフェース型で操作するため、中身を意識する必要がない。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="円/楕円 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905249" y="3086100"/>
+          <a:ext cx="2486025" cy="2914650"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>162484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3724275" y="2391334"/>
+          <a:ext cx="1724025" cy="970991"/>
+          <a:chOff x="400050" y="933393"/>
+          <a:chExt cx="1724025" cy="969038"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="3" name="グループ化 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="933393"/>
+            <a:ext cx="1724025" cy="969038"/>
+            <a:chOff x="400050" y="933393"/>
+            <a:chExt cx="1724025" cy="969038"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="933393"/>
+              <a:ext cx="1724025" cy="969038"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="8" name="直線コネクタ 7"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1267093"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="9" name="直線コネクタ 8"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1381469"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="840628" y="962025"/>
+            <a:ext cx="890501" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>PrintBanner</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1391053"/>
+            <a:ext cx="837922" cy="435907"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>printWeak</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>printStrong</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>86283</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="2"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1633538" y="1428750"/>
+          <a:ext cx="0" cy="886383"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="455702" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676399" y="1647825"/>
+          <a:ext cx="455702" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Uses</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>↓</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>86283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="771525" y="2315133"/>
+          <a:ext cx="1724025" cy="1123391"/>
+          <a:chOff x="400050" y="904874"/>
+          <a:chExt cx="1724025" cy="1121131"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="13" name="グループ化 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="904874"/>
+            <a:ext cx="1724025" cy="1121131"/>
+            <a:chOff x="400050" y="904874"/>
+            <a:chExt cx="1724025" cy="1121131"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="904874"/>
+              <a:ext cx="1724025" cy="1121131"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="17" name="直線コネクタ 16"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1438198"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="18" name="直線コネクタ 17"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1562080"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="758709" y="962025"/>
+            <a:ext cx="1054328" cy="435907"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>&lt;&lt; interface &gt;&gt;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Print</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1581171"/>
+            <a:ext cx="837922" cy="435907"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>printWeak</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" i="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>printStrong</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133630</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+          <a:endCxn id="16" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2495550" y="2876829"/>
+          <a:ext cx="1228725" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123827</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="41" name="グループ化 40"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6619875" y="2381809"/>
+          <a:ext cx="1724025" cy="999568"/>
+          <a:chOff x="400050" y="904875"/>
+          <a:chExt cx="1724025" cy="997555"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="42" name="グループ化 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="904875"/>
+            <a:ext cx="1724025" cy="997555"/>
+            <a:chOff x="400050" y="904875"/>
+            <a:chExt cx="1724025" cy="997555"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="904875"/>
+              <a:ext cx="1724025" cy="997555"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="47" name="直線コネクタ 46"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1276599"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="48" name="直線コネクタ 47"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1381469"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="テキスト ボックス 42"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="982876" y="962025"/>
+            <a:ext cx="606000" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Banner</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="テキスト ボックス 43"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1438582"/>
+            <a:ext cx="1102418" cy="435906"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>showWithParen</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>showWithAster</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="円/楕円 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2790824" y="266700"/>
+          <a:ext cx="2152651" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="線吹き出し 1 (枠付き) 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5648325" y="933450"/>
+          <a:ext cx="2781300" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 42614"/>
+            <a:gd name="adj2" fmla="val -264"/>
+            <a:gd name="adj3" fmla="val 191"/>
+            <a:gd name="adj4" fmla="val -30039"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼び出し側はインターフェース型で操作するため、中身を意識する必要がない。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="53" name="グループ化 52"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="771525" y="838759"/>
+          <a:ext cx="1724025" cy="589991"/>
+          <a:chOff x="400050" y="904875"/>
+          <a:chExt cx="1724025" cy="727442"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="54" name="グループ化 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="904875"/>
+            <a:ext cx="1724025" cy="727442"/>
+            <a:chOff x="400050" y="904875"/>
+            <a:chExt cx="1724025" cy="727442"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="57" name="正方形/長方形 56"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="904875"/>
+              <a:ext cx="1724025" cy="727442"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="58" name="直線コネクタ 57"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1320757"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="59" name="直線コネクタ 58"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1444639"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1041897" y="962025"/>
+            <a:ext cx="487954" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Main</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138393</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直線矢印コネクタ 64"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="46" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448300" y="2876830"/>
+          <a:ext cx="1171575" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="68" name="グループ化 67"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3724275" y="5677459"/>
+          <a:ext cx="1724025" cy="1094816"/>
+          <a:chOff x="400050" y="933393"/>
+          <a:chExt cx="1724025" cy="1092614"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="69" name="グループ化 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="933393"/>
+            <a:ext cx="1724025" cy="1092614"/>
+            <a:chOff x="400050" y="933393"/>
+            <a:chExt cx="1724025" cy="1092614"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="72" name="正方形/長方形 71"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="933393"/>
+              <a:ext cx="1724025" cy="1092614"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="73" name="直線コネクタ 72"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1267093"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="74" name="直線コネクタ 73"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1524057"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="テキスト ボックス 69"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="840628" y="962025"/>
+            <a:ext cx="890501" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>PrintBanner</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="71" name="テキスト ボックス 70"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1552652"/>
+            <a:ext cx="837922" cy="435907"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>printWeak</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>printStrong</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="104" name="テキスト ボックス 103"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1305500"/>
+            <a:ext cx="594009" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>banner</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="95" idx="2"/>
+          <a:endCxn id="81" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1633538" y="4781550"/>
+          <a:ext cx="0" cy="943534"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="455702" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="テキスト ボックス 75"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676399" y="5000625"/>
+          <a:ext cx="455702" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Uses</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>↓</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="77" name="グループ化 76"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="771525" y="5725084"/>
+          <a:ext cx="1724025" cy="999568"/>
+          <a:chOff x="400050" y="904875"/>
+          <a:chExt cx="1724025" cy="997555"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="78" name="グループ化 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="904875"/>
+            <a:ext cx="1724025" cy="997555"/>
+            <a:chOff x="400050" y="904875"/>
+            <a:chExt cx="1724025" cy="997555"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="81" name="正方形/長方形 80"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="904875"/>
+              <a:ext cx="1724025" cy="997555"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="82" name="直線コネクタ 81"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1276599"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="83" name="直線コネクタ 82"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1400481"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="テキスト ボックス 78"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1052187" y="962025"/>
+            <a:ext cx="467371" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Print</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="テキスト ボックス 79"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1429076"/>
+            <a:ext cx="837922" cy="435906"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>printWeak</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" i="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>printStrong</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>52667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>52667</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線矢印コネクタ 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="1"/>
+          <a:endCxn id="81" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2495550" y="6224867"/>
+          <a:ext cx="1228725" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>86284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="85" name="グループ化 84"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6619875" y="5744134"/>
+          <a:ext cx="1724025" cy="999568"/>
+          <a:chOff x="400050" y="904875"/>
+          <a:chExt cx="1724025" cy="997555"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="86" name="グループ化 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="904875"/>
+            <a:ext cx="1724025" cy="997555"/>
+            <a:chOff x="400050" y="904875"/>
+            <a:chExt cx="1724025" cy="997555"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="89" name="正方形/長方形 88"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="904875"/>
+              <a:ext cx="1724025" cy="997555"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="90" name="直線コネクタ 89"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1276599"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="91" name="直線コネクタ 90"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1381469"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="テキスト ボックス 86"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="982876" y="962025"/>
+            <a:ext cx="606000" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Banner</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="テキスト ボックス 87"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="447675" y="1438582"/>
+            <a:ext cx="1102418" cy="435906"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>showWithParen</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>showWithAster</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="92" name="グループ化 91"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="771525" y="4191559"/>
+          <a:ext cx="1724025" cy="589991"/>
+          <a:chOff x="400050" y="904875"/>
+          <a:chExt cx="1724025" cy="727442"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="93" name="グループ化 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="400050" y="904875"/>
+            <a:ext cx="1724025" cy="727442"/>
+            <a:chOff x="400050" y="904875"/>
+            <a:chExt cx="1724025" cy="727442"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="95" name="正方形/長方形 94"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="904875"/>
+              <a:ext cx="1724025" cy="727442"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="96" name="直線コネクタ 95"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1320757"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="97" name="直線コネクタ 96"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="400050" y="1444639"/>
+              <a:ext cx="1714500" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="テキスト ボックス 93"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1041897" y="962025"/>
+            <a:ext cx="487954" cy="264028"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Main</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>69757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直線矢印コネクタ 97"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="101" idx="3"/>
+          <a:endCxn id="89" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="6241957"/>
+          <a:ext cx="1028700" cy="1961"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>120464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="フローチャート : 判断 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5457825" y="6191250"/>
+          <a:ext cx="133350" cy="101414"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3808,14 +8935,14 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Factory</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -3861,7 +8988,7 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -3872,7 +8999,7 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -3883,14 +9010,14 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>registerProduct</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4101,14 +9228,14 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Product</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4154,14 +9281,14 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>use</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -5331,7 +10458,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5956,7 +11083,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7550,7 +12677,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7752,14 +12879,14 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Drawable</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -7805,7 +12932,7 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -7816,14 +12943,14 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>setColor</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -8712,14 +13839,14 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Command</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -8765,14 +13892,14 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>execute</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -15148,393 +20275,591 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H33"/>
+  <dimension ref="A2:H78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="4.125" customWidth="1"/>
     <col min="3" max="3" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
     <col min="5" max="5" width="76.875" customWidth="1"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:5">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:5">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:5">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:5">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:5">
       <c r="B8" s="8" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="C9" s="1"/>
+    <row r="9" spans="1:5">
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" ht="27">
-      <c r="C10" s="3" t="s">
+    <row r="10" spans="1:5">
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="E18" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="E19" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="E20" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="E21" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="E22" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="E23" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="E24" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="E25" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="E29" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5">
+      <c r="E30" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="E31" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5">
+      <c r="E32" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5">
+      <c r="E44" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5">
+      <c r="E45" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5">
+      <c r="E46" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5">
+      <c r="E47" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="E49" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="E50" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="E51" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="2:8" ht="27">
+      <c r="C55" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F55" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="54">
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" s="9">
+        <v>1</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H56" s="11"/>
+    </row>
+    <row r="57" spans="2:8" ht="40.5">
+      <c r="C57" s="5">
+        <v>2</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F57" s="9">
+        <v>1</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H57" s="11"/>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="C58" s="5">
+        <v>3</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="11"/>
+    </row>
+    <row r="59" spans="2:8" ht="54">
+      <c r="C59" s="5">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H59" s="11"/>
+    </row>
+    <row r="60" spans="2:8" ht="40.5">
+      <c r="C60" s="5">
+        <v>5</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="40.5">
+      <c r="C61" s="5">
+        <v>6</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" s="9"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="11"/>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="C62" s="5">
+        <v>7</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="11"/>
+    </row>
+    <row r="63" spans="2:8" ht="40.5">
+      <c r="C63" s="5">
+        <v>8</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="9"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="11"/>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="C64" s="5">
+        <v>9</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="13"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="11"/>
+    </row>
+    <row r="65" spans="3:8">
+      <c r="C65" s="5">
+        <v>10</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="13"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="11"/>
+    </row>
+    <row r="66" spans="3:8">
+      <c r="C66" s="5">
+        <v>11</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="13"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" spans="3:8">
+      <c r="C67" s="5">
+        <v>12</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="13"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="11"/>
+    </row>
+    <row r="68" spans="3:8">
+      <c r="C68" s="5">
+        <v>13</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="11"/>
+    </row>
+    <row r="69" spans="3:8">
+      <c r="C69" s="5">
+        <v>14</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="11"/>
+    </row>
+    <row r="70" spans="3:8" ht="40.5">
+      <c r="C70" s="5">
+        <v>15</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="F70" s="9">
+        <v>1</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" spans="3:8">
+      <c r="C71" s="5">
+        <v>16</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="11"/>
+    </row>
+    <row r="72" spans="3:8">
+      <c r="C72" s="5">
+        <v>17</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="3:8">
+      <c r="C73" s="5">
+        <v>18</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="13"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="11"/>
+    </row>
+    <row r="74" spans="3:8">
+      <c r="C74" s="5">
+        <v>19</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" s="13"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="11"/>
+    </row>
+    <row r="75" spans="3:8">
+      <c r="C75" s="5">
+        <v>20</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="11"/>
+    </row>
+    <row r="76" spans="3:8">
+      <c r="C76" s="5">
+        <v>21</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="11"/>
+    </row>
+    <row r="77" spans="3:8" ht="67.5">
+      <c r="C77" s="5">
+        <v>22</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F77" s="9">
+        <v>1</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H77" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>70</v>
+    </row>
+    <row r="78" spans="3:8">
+      <c r="C78" s="5">
+        <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="54">
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="9">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="5">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="5">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" ht="54">
-      <c r="C14" s="5">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:8" ht="40.5">
-      <c r="C15" s="5">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="40.5">
-      <c r="C16" s="5">
-        <v>6</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="3:8">
-      <c r="C17" s="5">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="3:8" ht="40.5">
-      <c r="C18" s="5">
-        <v>8</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="3:8">
-      <c r="C19" s="5">
-        <v>9</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="3:8">
-      <c r="C20" s="5">
-        <v>10</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="3:8">
-      <c r="C21" s="5">
-        <v>11</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="3:8">
-      <c r="C22" s="5">
+      <c r="D78" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="3:8">
-      <c r="C23" s="5">
-        <v>13</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="3:8">
-      <c r="C24" s="5">
-        <v>14</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="3:8" ht="40.5">
-      <c r="C25" s="5">
-        <v>15</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="3:8">
-      <c r="C26" s="5">
-        <v>16</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="3:8">
-      <c r="C27" s="5">
-        <v>17</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="3:8">
-      <c r="C28" s="5">
-        <v>18</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="3:8">
-      <c r="C29" s="5">
-        <v>19</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="3:8">
-      <c r="C30" s="5">
-        <v>20</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="3:8">
-      <c r="C31" s="5">
-        <v>21</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="3:8" ht="67.5">
-      <c r="C32" s="5">
-        <v>22</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="9">
-        <v>1</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8">
-      <c r="C33" s="5">
-        <v>23</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="11"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="11"/>
     </row>
   </sheetData>
   <sortState ref="C9:E31">
@@ -15542,19 +20867,20 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G56:G78">
       <formula1>"有,無"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D32" location="Command!A1" display="1.Command"/>
-    <hyperlink ref="D14" location="'Factory Method'!A1" display="Factory Method"/>
-    <hyperlink ref="D15" location="Singleton!A1" display="Singleton"/>
-    <hyperlink ref="D25" location="Facade!A1" display="Façade"/>
-    <hyperlink ref="D11" location="Iterator!A1" display="Iterator"/>
+    <hyperlink ref="D77" location="Command!A1" display="1.Command"/>
+    <hyperlink ref="D59" location="'Factory Method'!A1" display="Factory Method"/>
+    <hyperlink ref="D60" location="Singleton!A1" display="Singleton"/>
+    <hyperlink ref="D70" location="Facade!A1" display="Façade"/>
+    <hyperlink ref="D56" location="Iterator!A1" display="Iterator"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15563,14 +20889,14 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+      <selection activeCell="AN21" sqref="AN21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -15588,17 +20914,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:B23"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AO30" sqref="AO30"/>
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>31</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -15614,19 +20973,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G61"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N63" sqref="N63"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -15636,107 +20995,107 @@
     </row>
     <row r="13" spans="1:5">
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="E14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="3:7">
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="3:7">
       <c r="D18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="3:7">
       <c r="D19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="3:7">
       <c r="D20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="3:7">
       <c r="C22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:7">
       <c r="D23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="3:7">
       <c r="D24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="3:7">
       <c r="D26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="3:7">
       <c r="E27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="3:7">
       <c r="E28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="3:7">
       <c r="E29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="3:7">
       <c r="F31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="3:7">
       <c r="G32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="7:7">
       <c r="G33" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="3:4">
       <c r="C56" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="3:4">
       <c r="D57" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="3:4">
       <c r="D59" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="D61" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -15747,19 +21106,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -15775,12 +21134,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B50"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AL34" sqref="AL34"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="BL25" sqref="BL25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
